--- a/data/pca/factorExposure/factorExposure_2012-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-30.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01716433992421744</v>
+        <v>-0.01677781688094165</v>
       </c>
       <c r="C2">
-        <v>-0.03531783238402508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02817638393942886</v>
+      </c>
+      <c r="D2">
+        <v>0.001050864178886592</v>
+      </c>
+      <c r="E2">
+        <v>0.01125095132698075</v>
+      </c>
+      <c r="F2">
+        <v>-0.009724917983334615</v>
+      </c>
+      <c r="G2">
+        <v>-0.003569621593256619</v>
+      </c>
+      <c r="H2">
+        <v>0.04521291757245472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07610401942794869</v>
+        <v>-0.08460819344010496</v>
       </c>
       <c r="C4">
-        <v>-0.05635687894875648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03719003054773273</v>
+      </c>
+      <c r="D4">
+        <v>0.07066112642226455</v>
+      </c>
+      <c r="E4">
+        <v>0.002939396023551083</v>
+      </c>
+      <c r="F4">
+        <v>-0.03024269482316815</v>
+      </c>
+      <c r="G4">
+        <v>-0.005452918773362433</v>
+      </c>
+      <c r="H4">
+        <v>-0.03892449801899763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1067460106422164</v>
+        <v>-0.1195794859533868</v>
       </c>
       <c r="C6">
-        <v>-0.0549405237198224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03392780051149013</v>
+      </c>
+      <c r="D6">
+        <v>0.007442127198567626</v>
+      </c>
+      <c r="E6">
+        <v>0.002168304948601328</v>
+      </c>
+      <c r="F6">
+        <v>-0.06177716305707814</v>
+      </c>
+      <c r="G6">
+        <v>-0.02226078316821973</v>
+      </c>
+      <c r="H6">
+        <v>0.07188099074493237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04976099956635139</v>
+        <v>-0.06151610261804076</v>
       </c>
       <c r="C7">
-        <v>-0.02789595786964989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01900389877893744</v>
+      </c>
+      <c r="D7">
+        <v>0.04414413771512259</v>
+      </c>
+      <c r="E7">
+        <v>0.02609678547653006</v>
+      </c>
+      <c r="F7">
+        <v>-0.03615466738577647</v>
+      </c>
+      <c r="G7">
+        <v>0.03491506182933911</v>
+      </c>
+      <c r="H7">
+        <v>-0.02195996583407873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03661469062790721</v>
+        <v>-0.03889697557554482</v>
       </c>
       <c r="C8">
-        <v>-0.01080443289662575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.003041669351497747</v>
+      </c>
+      <c r="D8">
+        <v>0.03350243186037954</v>
+      </c>
+      <c r="E8">
+        <v>0.01960891360424485</v>
+      </c>
+      <c r="F8">
+        <v>-0.03806576051412778</v>
+      </c>
+      <c r="G8">
+        <v>-0.03150858657342857</v>
+      </c>
+      <c r="H8">
+        <v>0.008424195331432802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0685950444206562</v>
+        <v>-0.07609931469105446</v>
       </c>
       <c r="C9">
-        <v>-0.04629760447691398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02809041784797221</v>
+      </c>
+      <c r="D9">
+        <v>0.06460626040222804</v>
+      </c>
+      <c r="E9">
+        <v>0.02334285714624582</v>
+      </c>
+      <c r="F9">
+        <v>-0.03638403040692572</v>
+      </c>
+      <c r="G9">
+        <v>-0.009660649845318114</v>
+      </c>
+      <c r="H9">
+        <v>-0.05350414387198932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0300586336334496</v>
+        <v>-0.03628373735968482</v>
       </c>
       <c r="C10">
-        <v>-0.03543821451142314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04321755015749469</v>
+      </c>
+      <c r="D10">
+        <v>-0.1710372545671937</v>
+      </c>
+      <c r="E10">
+        <v>0.04808692171656465</v>
+      </c>
+      <c r="F10">
+        <v>-0.04167505565740579</v>
+      </c>
+      <c r="G10">
+        <v>0.03704575004605824</v>
+      </c>
+      <c r="H10">
+        <v>0.03693145986940296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07100158511040106</v>
+        <v>-0.07508641759924053</v>
       </c>
       <c r="C11">
-        <v>-0.04652243138307578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02633449106490668</v>
+      </c>
+      <c r="D11">
+        <v>0.06352090528219057</v>
+      </c>
+      <c r="E11">
+        <v>-0.01053399694331365</v>
+      </c>
+      <c r="F11">
+        <v>-0.02495430110609526</v>
+      </c>
+      <c r="G11">
+        <v>0.0012664094398558</v>
+      </c>
+      <c r="H11">
+        <v>-0.09007577349062582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05739460962153853</v>
+        <v>-0.06409305366846377</v>
       </c>
       <c r="C12">
-        <v>-0.05061578187780755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03470600719467957</v>
+      </c>
+      <c r="D12">
+        <v>0.04921338723118782</v>
+      </c>
+      <c r="E12">
+        <v>0.0105234196467113</v>
+      </c>
+      <c r="F12">
+        <v>-0.01740061830174473</v>
+      </c>
+      <c r="G12">
+        <v>-0.003812251036635715</v>
+      </c>
+      <c r="H12">
+        <v>-0.05428350802818441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06253019400956859</v>
+        <v>-0.06458610672584121</v>
       </c>
       <c r="C13">
-        <v>-0.04344099607629841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02534881315796752</v>
+      </c>
+      <c r="D13">
+        <v>0.04008167808848886</v>
+      </c>
+      <c r="E13">
+        <v>0.003839184636192853</v>
+      </c>
+      <c r="F13">
+        <v>-0.0002695665488585069</v>
+      </c>
+      <c r="G13">
+        <v>-0.0009412134557904027</v>
+      </c>
+      <c r="H13">
+        <v>-0.05396846167207234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03186529666499366</v>
+        <v>-0.04010267488377055</v>
       </c>
       <c r="C14">
-        <v>-0.02994137184497025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02579173678445354</v>
+      </c>
+      <c r="D14">
+        <v>0.006946650584311835</v>
+      </c>
+      <c r="E14">
+        <v>0.02466364169921132</v>
+      </c>
+      <c r="F14">
+        <v>-0.01343390687659062</v>
+      </c>
+      <c r="G14">
+        <v>-0.01799634330907275</v>
+      </c>
+      <c r="H14">
+        <v>-0.05817177513541861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03972091312975951</v>
+        <v>-0.03965087834248671</v>
       </c>
       <c r="C15">
-        <v>-0.01201802875812723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003834258288731579</v>
+      </c>
+      <c r="D15">
+        <v>0.005940280750311839</v>
+      </c>
+      <c r="E15">
+        <v>0.04309775549943795</v>
+      </c>
+      <c r="F15">
+        <v>0.005103433337056826</v>
+      </c>
+      <c r="G15">
+        <v>-0.03072479552184362</v>
+      </c>
+      <c r="H15">
+        <v>-0.04507747246712778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06014870276878907</v>
+        <v>-0.0672200299487357</v>
       </c>
       <c r="C16">
-        <v>-0.04119935682071026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02612404194102878</v>
+      </c>
+      <c r="D16">
+        <v>0.06288506990271293</v>
+      </c>
+      <c r="E16">
+        <v>0.002207743662759066</v>
+      </c>
+      <c r="F16">
+        <v>-0.02296381594568772</v>
+      </c>
+      <c r="G16">
+        <v>0.0007399364054845248</v>
+      </c>
+      <c r="H16">
+        <v>-0.05628576412054401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06490493258019601</v>
+        <v>-0.06390853516804137</v>
       </c>
       <c r="C20">
-        <v>-0.03265935289963306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01322230120758139</v>
+      </c>
+      <c r="D20">
+        <v>0.04876716047890536</v>
+      </c>
+      <c r="E20">
+        <v>0.01893272780760484</v>
+      </c>
+      <c r="F20">
+        <v>-0.0221932671077839</v>
+      </c>
+      <c r="G20">
+        <v>-0.006685831137025126</v>
+      </c>
+      <c r="H20">
+        <v>-0.05478078650758084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02374478985619453</v>
+        <v>-0.02247408307087268</v>
       </c>
       <c r="C21">
-        <v>0.003038482191821511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01099759608710371</v>
+      </c>
+      <c r="D21">
+        <v>0.03347123881223737</v>
+      </c>
+      <c r="E21">
+        <v>0.07602977179190465</v>
+      </c>
+      <c r="F21">
+        <v>0.02332070799653141</v>
+      </c>
+      <c r="G21">
+        <v>-0.01681934287469264</v>
+      </c>
+      <c r="H21">
+        <v>0.03886620282954249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07472461008073783</v>
+        <v>-0.0661160284953113</v>
       </c>
       <c r="C22">
-        <v>-0.06256954022670669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03423069261003509</v>
+      </c>
+      <c r="D22">
+        <v>0.1022870445362551</v>
+      </c>
+      <c r="E22">
+        <v>0.6006319596787827</v>
+      </c>
+      <c r="F22">
+        <v>0.1790633542712808</v>
+      </c>
+      <c r="G22">
+        <v>0.03105034448084999</v>
+      </c>
+      <c r="H22">
+        <v>0.149637212569449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07569448352240479</v>
+        <v>-0.06666111986422203</v>
       </c>
       <c r="C23">
-        <v>-0.06149779628345378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03294680786446284</v>
+      </c>
+      <c r="D23">
+        <v>0.102993962694827</v>
+      </c>
+      <c r="E23">
+        <v>0.5998038345089759</v>
+      </c>
+      <c r="F23">
+        <v>0.1781594598121961</v>
+      </c>
+      <c r="G23">
+        <v>0.02913941794948881</v>
+      </c>
+      <c r="H23">
+        <v>0.1450278470912103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06964119969795771</v>
+        <v>-0.07775063252275384</v>
       </c>
       <c r="C24">
-        <v>-0.05010454422458356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03211871419873354</v>
+      </c>
+      <c r="D24">
+        <v>0.06131565936485694</v>
+      </c>
+      <c r="E24">
+        <v>0.0108565253903798</v>
+      </c>
+      <c r="F24">
+        <v>-0.03264318722411143</v>
+      </c>
+      <c r="G24">
+        <v>-0.00844232603689838</v>
+      </c>
+      <c r="H24">
+        <v>-0.06528283550636413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07036769338737006</v>
+        <v>-0.07596882296123569</v>
       </c>
       <c r="C25">
-        <v>-0.05613783819980224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03679167938610584</v>
+      </c>
+      <c r="D25">
+        <v>0.05539746131633854</v>
+      </c>
+      <c r="E25">
+        <v>0.01267557784913525</v>
+      </c>
+      <c r="F25">
+        <v>-0.02665801756166416</v>
+      </c>
+      <c r="G25">
+        <v>-0.02041621890419452</v>
+      </c>
+      <c r="H25">
+        <v>-0.06724559075327592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04295365875273157</v>
+        <v>-0.04648125449068692</v>
       </c>
       <c r="C26">
-        <v>-0.007927102209683753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>9.864347910828386e-05</v>
+      </c>
+      <c r="D26">
+        <v>0.02571861910132969</v>
+      </c>
+      <c r="E26">
+        <v>0.0423421078539606</v>
+      </c>
+      <c r="F26">
+        <v>-0.01975861413976195</v>
+      </c>
+      <c r="G26">
+        <v>-0.000293748947765633</v>
+      </c>
+      <c r="H26">
+        <v>-0.06296134781569508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05904136375571141</v>
+        <v>-0.07298552351663899</v>
       </c>
       <c r="C28">
-        <v>-0.0780906607311236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0884563212182834</v>
+      </c>
+      <c r="D28">
+        <v>-0.3123077291663216</v>
+      </c>
+      <c r="E28">
+        <v>0.04198512458180305</v>
+      </c>
+      <c r="F28">
+        <v>-0.05430324022326374</v>
+      </c>
+      <c r="G28">
+        <v>-0.02890653628620845</v>
+      </c>
+      <c r="H28">
+        <v>0.01451684040424175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0409033461378617</v>
+        <v>-0.04686004082075179</v>
       </c>
       <c r="C29">
-        <v>-0.03028609059660423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02360743820279924</v>
+      </c>
+      <c r="D29">
+        <v>0.006505987699068729</v>
+      </c>
+      <c r="E29">
+        <v>0.04790711238236892</v>
+      </c>
+      <c r="F29">
+        <v>-0.002023548592806945</v>
+      </c>
+      <c r="G29">
+        <v>-0.003556140279549517</v>
+      </c>
+      <c r="H29">
+        <v>-0.0867843304241494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1248180511069841</v>
+        <v>-0.1318934174972411</v>
       </c>
       <c r="C30">
-        <v>-0.09246334462106678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.05742005944404575</v>
+      </c>
+      <c r="D30">
+        <v>0.08754557096020384</v>
+      </c>
+      <c r="E30">
+        <v>0.0394021021805303</v>
+      </c>
+      <c r="F30">
+        <v>-0.003132925706921197</v>
+      </c>
+      <c r="G30">
+        <v>-0.04198317384925401</v>
+      </c>
+      <c r="H30">
+        <v>0.03025534313671584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04116447286487784</v>
+        <v>-0.04622093373113759</v>
       </c>
       <c r="C31">
-        <v>-0.01869555479324475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01009978137509502</v>
+      </c>
+      <c r="D31">
+        <v>0.02546427855947318</v>
+      </c>
+      <c r="E31">
+        <v>0.02522505851500401</v>
+      </c>
+      <c r="F31">
+        <v>-0.01142072321289078</v>
+      </c>
+      <c r="G31">
+        <v>0.01493285143527203</v>
+      </c>
+      <c r="H31">
+        <v>-0.07568290882234971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03733470666270089</v>
+        <v>-0.03711668412852452</v>
       </c>
       <c r="C32">
-        <v>-0.02195138710272354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01381011529010919</v>
+      </c>
+      <c r="D32">
+        <v>0.01343552177895709</v>
+      </c>
+      <c r="E32">
+        <v>0.06992458513699278</v>
+      </c>
+      <c r="F32">
+        <v>0.005768117427472879</v>
+      </c>
+      <c r="G32">
+        <v>-0.03840273093679564</v>
+      </c>
+      <c r="H32">
+        <v>-0.05671984490264287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08043494880127516</v>
+        <v>-0.09440923082183347</v>
       </c>
       <c r="C33">
-        <v>-0.04337913349794105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02638605921074473</v>
+      </c>
+      <c r="D33">
+        <v>0.05642442857234579</v>
+      </c>
+      <c r="E33">
+        <v>0.0170333136020083</v>
+      </c>
+      <c r="F33">
+        <v>-0.004476714626538206</v>
+      </c>
+      <c r="G33">
+        <v>0.005919862551515265</v>
+      </c>
+      <c r="H33">
+        <v>-0.07406165641469144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05541789470180158</v>
+        <v>-0.05942839376055103</v>
       </c>
       <c r="C34">
-        <v>-0.02786955091529084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01219131164824684</v>
+      </c>
+      <c r="D34">
+        <v>0.05606177361960817</v>
+      </c>
+      <c r="E34">
+        <v>0.003114661583410526</v>
+      </c>
+      <c r="F34">
+        <v>-0.01524524542988123</v>
+      </c>
+      <c r="G34">
+        <v>-0.007180168087319903</v>
+      </c>
+      <c r="H34">
+        <v>-0.05234979180412593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03751354716027876</v>
+        <v>-0.04125951401156572</v>
       </c>
       <c r="C35">
-        <v>-0.009502922193529554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002531822559513554</v>
+      </c>
+      <c r="D35">
+        <v>0.008864435354216537</v>
+      </c>
+      <c r="E35">
+        <v>0.02252499005157495</v>
+      </c>
+      <c r="F35">
+        <v>0.009110403408445992</v>
+      </c>
+      <c r="G35">
+        <v>0.01046451425489018</v>
+      </c>
+      <c r="H35">
+        <v>-0.03705011591058753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02019673370470859</v>
+        <v>-0.02631243239112422</v>
       </c>
       <c r="C36">
-        <v>-0.01715485927490108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01300255417674126</v>
+      </c>
+      <c r="D36">
+        <v>0.01600007853455266</v>
+      </c>
+      <c r="E36">
+        <v>0.04007887992880092</v>
+      </c>
+      <c r="F36">
+        <v>-0.01607097211580195</v>
+      </c>
+      <c r="G36">
+        <v>0.005987833785548324</v>
+      </c>
+      <c r="H36">
+        <v>-0.05246251296760303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04073223392068577</v>
+        <v>-0.04355569675523851</v>
       </c>
       <c r="C38">
-        <v>-0.003773293053950595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002618708884919209</v>
+      </c>
+      <c r="D38">
+        <v>0.01839598082563288</v>
+      </c>
+      <c r="E38">
+        <v>0.06054486198723281</v>
+      </c>
+      <c r="F38">
+        <v>0.01477166627202231</v>
+      </c>
+      <c r="G38">
+        <v>-0.01798417699848946</v>
+      </c>
+      <c r="H38">
+        <v>-0.0221440588061598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09313734585530276</v>
+        <v>-0.1030609831226442</v>
       </c>
       <c r="C39">
-        <v>-0.07240463907422935</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04749005391377058</v>
+      </c>
+      <c r="D39">
+        <v>0.07284243286035139</v>
+      </c>
+      <c r="E39">
+        <v>-0.01549246111084219</v>
+      </c>
+      <c r="F39">
+        <v>-0.01141963677346543</v>
+      </c>
+      <c r="G39">
+        <v>-0.02852344709786223</v>
+      </c>
+      <c r="H39">
+        <v>-0.05838458027414824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07475049997360382</v>
+        <v>-0.07175370395659063</v>
       </c>
       <c r="C40">
-        <v>-0.04133850756594441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01958350804275966</v>
+      </c>
+      <c r="D40">
+        <v>0.003549210337014161</v>
+      </c>
+      <c r="E40">
+        <v>0.01539613943168111</v>
+      </c>
+      <c r="F40">
+        <v>0.05866420892339319</v>
+      </c>
+      <c r="G40">
+        <v>-0.04091192276118206</v>
+      </c>
+      <c r="H40">
+        <v>0.07518475977680954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04028775792832988</v>
+        <v>-0.04289221780180331</v>
       </c>
       <c r="C41">
-        <v>-0.006182861611430656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001567778429389046</v>
+      </c>
+      <c r="D41">
+        <v>0.03794023166589402</v>
+      </c>
+      <c r="E41">
+        <v>0.006274598056587953</v>
+      </c>
+      <c r="F41">
+        <v>0.01357946972564289</v>
+      </c>
+      <c r="G41">
+        <v>-0.01415611133024683</v>
+      </c>
+      <c r="H41">
+        <v>-0.03214557546467195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04640054924031553</v>
+        <v>-0.05497238750325718</v>
       </c>
       <c r="C43">
-        <v>-0.02547676888774579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0161473306372558</v>
+      </c>
+      <c r="D43">
+        <v>0.0269812455792169</v>
+      </c>
+      <c r="E43">
+        <v>0.0156079785072277</v>
+      </c>
+      <c r="F43">
+        <v>-0.00876923910021494</v>
+      </c>
+      <c r="G43">
+        <v>0.005129474976703465</v>
+      </c>
+      <c r="H43">
+        <v>-0.04798506215592692</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09575879112450429</v>
+        <v>-0.09082787379817223</v>
       </c>
       <c r="C44">
-        <v>-0.09475565838419206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06133576829399651</v>
+      </c>
+      <c r="D44">
+        <v>0.06843790236489242</v>
+      </c>
+      <c r="E44">
+        <v>0.07972626652642206</v>
+      </c>
+      <c r="F44">
+        <v>-0.04046206139409031</v>
+      </c>
+      <c r="G44">
+        <v>-0.02810380280205814</v>
+      </c>
+      <c r="H44">
+        <v>-0.01734191378638889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0246893080617629</v>
+        <v>-0.03137007842019626</v>
       </c>
       <c r="C46">
-        <v>-0.01306906345367261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009020035381688246</v>
+      </c>
+      <c r="D46">
+        <v>0.03429193918717967</v>
+      </c>
+      <c r="E46">
+        <v>0.02190521281286708</v>
+      </c>
+      <c r="F46">
+        <v>-0.01654008280059932</v>
+      </c>
+      <c r="G46">
+        <v>-0.00827841340684906</v>
+      </c>
+      <c r="H46">
+        <v>-0.03618027250887121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02727251097096146</v>
+        <v>-0.03510281966515338</v>
       </c>
       <c r="C47">
-        <v>-0.0254892872273575</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01949673546553014</v>
+      </c>
+      <c r="D47">
+        <v>0.01956075982813285</v>
+      </c>
+      <c r="E47">
+        <v>0.0505087812129951</v>
+      </c>
+      <c r="F47">
+        <v>-0.01216684282321905</v>
+      </c>
+      <c r="G47">
+        <v>0.03989864429904073</v>
+      </c>
+      <c r="H47">
+        <v>-0.02955293605405106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03162095217328571</v>
+        <v>-0.03694923786975558</v>
       </c>
       <c r="C48">
-        <v>-0.01690136446436036</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008972844927242778</v>
+      </c>
+      <c r="D48">
+        <v>0.02557591739072946</v>
+      </c>
+      <c r="E48">
+        <v>0.04351017216708954</v>
+      </c>
+      <c r="F48">
+        <v>-0.003395570791258791</v>
+      </c>
+      <c r="G48">
+        <v>-0.01289921960669939</v>
+      </c>
+      <c r="H48">
+        <v>-0.05383180558375129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1641440202638556</v>
+        <v>-0.1921913071628898</v>
       </c>
       <c r="C49">
-        <v>-0.06635890594276159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03803886099712904</v>
+      </c>
+      <c r="D49">
+        <v>0.02053621422228832</v>
+      </c>
+      <c r="E49">
+        <v>-0.1273713152865685</v>
+      </c>
+      <c r="F49">
+        <v>-0.06112484355851472</v>
+      </c>
+      <c r="G49">
+        <v>0.08080927451710414</v>
+      </c>
+      <c r="H49">
+        <v>0.2249929786498465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0375797166280324</v>
+        <v>-0.0451002796031694</v>
       </c>
       <c r="C50">
-        <v>-0.02213146220899375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01535277071319632</v>
+      </c>
+      <c r="D50">
+        <v>0.03711541671811515</v>
+      </c>
+      <c r="E50">
+        <v>0.05110548260323689</v>
+      </c>
+      <c r="F50">
+        <v>-0.01670586515419205</v>
+      </c>
+      <c r="G50">
+        <v>0.01009232471843687</v>
+      </c>
+      <c r="H50">
+        <v>-0.0714885737713806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02596665658115539</v>
+        <v>-0.02706233172202893</v>
       </c>
       <c r="C51">
-        <v>-0.01010389911103558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.005438528574600274</v>
+      </c>
+      <c r="D51">
+        <v>0.02136159159115315</v>
+      </c>
+      <c r="E51">
+        <v>0.01632836924468068</v>
+      </c>
+      <c r="F51">
+        <v>-0.008052041872699452</v>
+      </c>
+      <c r="G51">
+        <v>-0.002366803730008476</v>
+      </c>
+      <c r="H51">
+        <v>0.003416394368751391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1485907731107441</v>
+        <v>-0.1615696987629177</v>
       </c>
       <c r="C53">
-        <v>-0.07853928473867326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0518536248177198</v>
+      </c>
+      <c r="D53">
+        <v>0.02162694776931364</v>
+      </c>
+      <c r="E53">
+        <v>-0.03292932003039458</v>
+      </c>
+      <c r="F53">
+        <v>-0.01577456700700032</v>
+      </c>
+      <c r="G53">
+        <v>-0.01032537644801081</v>
+      </c>
+      <c r="H53">
+        <v>-0.1552258137491324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05508170263333295</v>
+        <v>-0.05591666840098864</v>
       </c>
       <c r="C54">
-        <v>-0.02378418701776298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01101185166814095</v>
+      </c>
+      <c r="D54">
+        <v>0.02192977219930123</v>
+      </c>
+      <c r="E54">
+        <v>0.04875122543825152</v>
+      </c>
+      <c r="F54">
+        <v>-0.005509740841274463</v>
+      </c>
+      <c r="G54">
+        <v>-0.01927058610884102</v>
+      </c>
+      <c r="H54">
+        <v>-0.06258581730450756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09828610388627439</v>
+        <v>-0.1017691384754815</v>
       </c>
       <c r="C55">
-        <v>-0.05560624072091551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03533053542860792</v>
+      </c>
+      <c r="D55">
+        <v>0.02792087985005647</v>
+      </c>
+      <c r="E55">
+        <v>0.01048648642626791</v>
+      </c>
+      <c r="F55">
+        <v>-0.01513057125558535</v>
+      </c>
+      <c r="G55">
+        <v>-0.01981245524344357</v>
+      </c>
+      <c r="H55">
+        <v>-0.1468204636678863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1471226591750801</v>
+        <v>-0.1606346897816446</v>
       </c>
       <c r="C56">
-        <v>-0.09340307386053197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06441931443596755</v>
+      </c>
+      <c r="D56">
+        <v>0.01978353961480309</v>
+      </c>
+      <c r="E56">
+        <v>-0.03175971736814886</v>
+      </c>
+      <c r="F56">
+        <v>-0.0340759351719637</v>
+      </c>
+      <c r="G56">
+        <v>-0.00471583045719657</v>
+      </c>
+      <c r="H56">
+        <v>-0.162395926097916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1196632378677782</v>
+        <v>-0.0960714363997589</v>
       </c>
       <c r="C58">
-        <v>-0.00427290454198399</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03635234228709688</v>
+      </c>
+      <c r="D58">
+        <v>0.04980340946339615</v>
+      </c>
+      <c r="E58">
+        <v>0.1691782061265283</v>
+      </c>
+      <c r="F58">
+        <v>-0.00451080794760227</v>
+      </c>
+      <c r="G58">
+        <v>0.06935718628239115</v>
+      </c>
+      <c r="H58">
+        <v>0.1523386227194714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1185991614440228</v>
+        <v>-0.1426627870714751</v>
       </c>
       <c r="C59">
-        <v>-0.07899080753284249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08821144030423556</v>
+      </c>
+      <c r="D59">
+        <v>-0.3612048864887099</v>
+      </c>
+      <c r="E59">
+        <v>0.05065956144334047</v>
+      </c>
+      <c r="F59">
+        <v>-0.003688424351440048</v>
+      </c>
+      <c r="G59">
+        <v>0.03797490616570336</v>
+      </c>
+      <c r="H59">
+        <v>-0.00345585160392557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2004222829906397</v>
+        <v>-0.2290287568525521</v>
       </c>
       <c r="C60">
-        <v>-0.1027917742619626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06818036159725659</v>
+      </c>
+      <c r="D60">
+        <v>0.02886928615214929</v>
+      </c>
+      <c r="E60">
+        <v>-0.06843817013276135</v>
+      </c>
+      <c r="F60">
+        <v>-0.05708813595347151</v>
+      </c>
+      <c r="G60">
+        <v>-0.01076868306109467</v>
+      </c>
+      <c r="H60">
+        <v>0.1614863210853777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07890304826769703</v>
+        <v>-0.08674793645719928</v>
       </c>
       <c r="C61">
-        <v>-0.04961938093908717</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03198433355719676</v>
+      </c>
+      <c r="D61">
+        <v>0.05085208429340937</v>
+      </c>
+      <c r="E61">
+        <v>-0.01347176317746473</v>
+      </c>
+      <c r="F61">
+        <v>-0.008851526514845495</v>
+      </c>
+      <c r="G61">
+        <v>0.001000289075089683</v>
+      </c>
+      <c r="H61">
+        <v>-0.06992528971023036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1266177662190495</v>
+        <v>-0.1395811835436514</v>
       </c>
       <c r="C62">
-        <v>-0.066974661093402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04313775997962618</v>
+      </c>
+      <c r="D62">
+        <v>0.02705370595497374</v>
+      </c>
+      <c r="E62">
+        <v>-0.0552605347971672</v>
+      </c>
+      <c r="F62">
+        <v>-0.0111023357984799</v>
+      </c>
+      <c r="G62">
+        <v>-0.04235347044672445</v>
+      </c>
+      <c r="H62">
+        <v>-0.1581695756331914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05378345973161785</v>
+        <v>-0.05217070364574137</v>
       </c>
       <c r="C63">
-        <v>-0.02708338585157057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01341632118338667</v>
+      </c>
+      <c r="D63">
+        <v>0.02598618787534749</v>
+      </c>
+      <c r="E63">
+        <v>0.05185329824766548</v>
+      </c>
+      <c r="F63">
+        <v>0.003987317959971966</v>
+      </c>
+      <c r="G63">
+        <v>-0.041475593287978</v>
+      </c>
+      <c r="H63">
+        <v>-0.07191193687502763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1089725052305213</v>
+        <v>-0.1117742773609197</v>
       </c>
       <c r="C64">
-        <v>-0.02835254105591394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004673139821652903</v>
+      </c>
+      <c r="D64">
+        <v>0.04267240509739675</v>
+      </c>
+      <c r="E64">
+        <v>0.03214143065426026</v>
+      </c>
+      <c r="F64">
+        <v>-0.04750677986753639</v>
+      </c>
+      <c r="G64">
+        <v>-0.04519000758784031</v>
+      </c>
+      <c r="H64">
+        <v>-0.06948406457453737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1204691419731895</v>
+        <v>-0.1268270210045896</v>
       </c>
       <c r="C65">
-        <v>-0.05956625774317778</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03654080874973253</v>
+      </c>
+      <c r="D65">
+        <v>0.001564769025475669</v>
+      </c>
+      <c r="E65">
+        <v>0.005705863982920657</v>
+      </c>
+      <c r="F65">
+        <v>-0.06840826282211358</v>
+      </c>
+      <c r="G65">
+        <v>-0.05059325278011219</v>
+      </c>
+      <c r="H65">
+        <v>0.08403440843776608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1437502632793667</v>
+        <v>-0.1560406217625595</v>
       </c>
       <c r="C66">
-        <v>-0.0777005562729904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04406819045223511</v>
+      </c>
+      <c r="D66">
+        <v>0.1115407479648055</v>
+      </c>
+      <c r="E66">
+        <v>-0.0518858965462524</v>
+      </c>
+      <c r="F66">
+        <v>-0.025052153054377</v>
+      </c>
+      <c r="G66">
+        <v>-0.0354190705105338</v>
+      </c>
+      <c r="H66">
+        <v>-0.1302071871825781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07341175485039238</v>
+        <v>-0.08168949520090835</v>
       </c>
       <c r="C67">
-        <v>-0.0155480239030318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004449359327556542</v>
+      </c>
+      <c r="D67">
+        <v>0.02987630261191309</v>
+      </c>
+      <c r="E67">
+        <v>0.03161909389643738</v>
+      </c>
+      <c r="F67">
+        <v>-0.009119632420363953</v>
+      </c>
+      <c r="G67">
+        <v>0.00396022389850987</v>
+      </c>
+      <c r="H67">
+        <v>-0.02030137772003297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05947262152739278</v>
+        <v>-0.06367391012340226</v>
       </c>
       <c r="C68">
-        <v>-0.04956514689823033</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05661531769184212</v>
+      </c>
+      <c r="D68">
+        <v>-0.2642384331915408</v>
+      </c>
+      <c r="E68">
+        <v>0.05221572697281138</v>
+      </c>
+      <c r="F68">
+        <v>-0.008864782632840632</v>
+      </c>
+      <c r="G68">
+        <v>0.01385005190087079</v>
+      </c>
+      <c r="H68">
+        <v>-0.02058728303102518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05237397373992836</v>
+        <v>-0.05179248911566429</v>
       </c>
       <c r="C69">
-        <v>-0.01937353802002422</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004773089450352789</v>
+      </c>
+      <c r="D69">
+        <v>0.01969707041409867</v>
+      </c>
+      <c r="E69">
+        <v>0.02476093230949488</v>
+      </c>
+      <c r="F69">
+        <v>0.005792669335345038</v>
+      </c>
+      <c r="G69">
+        <v>0.01017804355408048</v>
+      </c>
+      <c r="H69">
+        <v>-0.05877179637585798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004841368642308856</v>
+        <v>-0.02544865361251237</v>
       </c>
       <c r="C70">
-        <v>0.004883165973750496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003724755513842427</v>
+      </c>
+      <c r="D70">
+        <v>-0.0007733085374221877</v>
+      </c>
+      <c r="E70">
+        <v>-0.02365049356388822</v>
+      </c>
+      <c r="F70">
+        <v>-0.02248395774688718</v>
+      </c>
+      <c r="G70">
+        <v>0.027287591460122</v>
+      </c>
+      <c r="H70">
+        <v>0.05932639429898887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06021795871174732</v>
+        <v>-0.06711444369392604</v>
       </c>
       <c r="C71">
-        <v>-0.04903953310521386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05906389090180473</v>
+      </c>
+      <c r="D71">
+        <v>-0.2914091263179177</v>
+      </c>
+      <c r="E71">
+        <v>0.04759872624393855</v>
+      </c>
+      <c r="F71">
+        <v>-0.04041054233661503</v>
+      </c>
+      <c r="G71">
+        <v>0.004251830784242877</v>
+      </c>
+      <c r="H71">
+        <v>-0.01677925326539143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1399100726116845</v>
+        <v>-0.1531716614216592</v>
       </c>
       <c r="C72">
-        <v>-0.06559486702610919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03928597239591621</v>
+      </c>
+      <c r="D72">
+        <v>-0.006022242774507149</v>
+      </c>
+      <c r="E72">
+        <v>-0.1091497445617696</v>
+      </c>
+      <c r="F72">
+        <v>0.1598528832275522</v>
+      </c>
+      <c r="G72">
+        <v>-0.1158425189267294</v>
+      </c>
+      <c r="H72">
+        <v>-0.01075014773514469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.264923158729516</v>
+        <v>-0.2854445747088519</v>
       </c>
       <c r="C73">
-        <v>-0.114812183742237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05537678656707142</v>
+      </c>
+      <c r="D73">
+        <v>0.09155372600863089</v>
+      </c>
+      <c r="E73">
+        <v>-0.1945987416543643</v>
+      </c>
+      <c r="F73">
+        <v>-0.1096905348198047</v>
+      </c>
+      <c r="G73">
+        <v>0.2337850479748539</v>
+      </c>
+      <c r="H73">
+        <v>0.514131138357291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07899305828887564</v>
+        <v>-0.09067328080480834</v>
       </c>
       <c r="C74">
-        <v>-0.07830574837647952</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05933948953148221</v>
+      </c>
+      <c r="D74">
+        <v>0.03011049856480744</v>
+      </c>
+      <c r="E74">
+        <v>-0.007136216868066413</v>
+      </c>
+      <c r="F74">
+        <v>0.01292026120908571</v>
+      </c>
+      <c r="G74">
+        <v>0.02499273402029168</v>
+      </c>
+      <c r="H74">
+        <v>-0.1299212813785529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09488922313724131</v>
+        <v>-0.1015750027230071</v>
       </c>
       <c r="C75">
-        <v>-0.05315425079072622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02852304313059825</v>
+      </c>
+      <c r="D75">
+        <v>0.01370717785942412</v>
+      </c>
+      <c r="E75">
+        <v>0.008328983698901414</v>
+      </c>
+      <c r="F75">
+        <v>-0.04174201422573406</v>
+      </c>
+      <c r="G75">
+        <v>0.002035554136238082</v>
+      </c>
+      <c r="H75">
+        <v>-0.1188698348041526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1269551324128215</v>
+        <v>-0.1370864342079551</v>
       </c>
       <c r="C76">
-        <v>-0.08433070911775457</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05541534257464961</v>
+      </c>
+      <c r="D76">
+        <v>0.05826138867935014</v>
+      </c>
+      <c r="E76">
+        <v>0.02323457961309114</v>
+      </c>
+      <c r="F76">
+        <v>-0.04801390129634719</v>
+      </c>
+      <c r="G76">
+        <v>-0.009641042865102667</v>
+      </c>
+      <c r="H76">
+        <v>-0.1594465503277474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.124019874105239</v>
+        <v>-0.1147594911137316</v>
       </c>
       <c r="C77">
-        <v>-0.03066378025476052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.003615872963890895</v>
+      </c>
+      <c r="D77">
+        <v>0.02142287301492575</v>
+      </c>
+      <c r="E77">
+        <v>-0.0142086702083006</v>
+      </c>
+      <c r="F77">
+        <v>-0.1836980993478605</v>
+      </c>
+      <c r="G77">
+        <v>-0.8714255212231709</v>
+      </c>
+      <c r="H77">
+        <v>0.2501143548994261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0945214609872589</v>
+        <v>-0.1261022158669093</v>
       </c>
       <c r="C78">
-        <v>-0.04180393243544207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03036888756230592</v>
+      </c>
+      <c r="D78">
+        <v>0.09252294348924198</v>
+      </c>
+      <c r="E78">
+        <v>0.06078903779136684</v>
+      </c>
+      <c r="F78">
+        <v>-0.01661592409902083</v>
+      </c>
+      <c r="G78">
+        <v>-0.034482344104266</v>
+      </c>
+      <c r="H78">
+        <v>0.09348598465196507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1468057651372607</v>
+        <v>-0.1519321885685483</v>
       </c>
       <c r="C79">
-        <v>-0.08327329840561735</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04654941176192687</v>
+      </c>
+      <c r="D79">
+        <v>0.02974255933354375</v>
+      </c>
+      <c r="E79">
+        <v>-0.01865925257932714</v>
+      </c>
+      <c r="F79">
+        <v>-0.01117013663552888</v>
+      </c>
+      <c r="G79">
+        <v>0.01283484622647215</v>
+      </c>
+      <c r="H79">
+        <v>-0.1665881557639104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04238972492843585</v>
+        <v>-0.04315664598190469</v>
       </c>
       <c r="C80">
-        <v>-0.01520281229818427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005456394353404629</v>
+      </c>
+      <c r="D80">
+        <v>0.02668745142864391</v>
+      </c>
+      <c r="E80">
+        <v>-0.00683240721779182</v>
+      </c>
+      <c r="F80">
+        <v>0.01283236425983927</v>
+      </c>
+      <c r="G80">
+        <v>0.04034996351958299</v>
+      </c>
+      <c r="H80">
+        <v>-0.03887307817083063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1182049340973317</v>
+        <v>-0.1210074437136699</v>
       </c>
       <c r="C81">
-        <v>-0.0673044569797266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03668840820984582</v>
+      </c>
+      <c r="D81">
+        <v>0.02817265655537392</v>
+      </c>
+      <c r="E81">
+        <v>0.008320527466418506</v>
+      </c>
+      <c r="F81">
+        <v>-0.02176089267013467</v>
+      </c>
+      <c r="G81">
+        <v>0.03253369258555031</v>
+      </c>
+      <c r="H81">
+        <v>-0.1786055119934423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1256825560269412</v>
+        <v>-0.1295337008157087</v>
       </c>
       <c r="C82">
-        <v>-0.07752950890508463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04834288112643129</v>
+      </c>
+      <c r="D82">
+        <v>0.03385668000265528</v>
+      </c>
+      <c r="E82">
+        <v>-0.01328812126594745</v>
+      </c>
+      <c r="F82">
+        <v>-0.05997610837751079</v>
+      </c>
+      <c r="G82">
+        <v>0.02524831145738287</v>
+      </c>
+      <c r="H82">
+        <v>-0.1841025074271985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07738072062334815</v>
+        <v>-0.08397009836680838</v>
       </c>
       <c r="C83">
-        <v>0.0006444170303949581</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01823891679177125</v>
+      </c>
+      <c r="D83">
+        <v>0.04130192151292252</v>
+      </c>
+      <c r="E83">
+        <v>0.01828443546937149</v>
+      </c>
+      <c r="F83">
+        <v>-0.05725066169486533</v>
+      </c>
+      <c r="G83">
+        <v>0.1057591610100488</v>
+      </c>
+      <c r="H83">
+        <v>0.06099089305225382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02821979792365022</v>
+        <v>-0.03992628572086315</v>
       </c>
       <c r="C84">
-        <v>-0.02430474074175096</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01912173305601589</v>
+      </c>
+      <c r="D84">
+        <v>0.03710127639821176</v>
+      </c>
+      <c r="E84">
+        <v>0.0198441128258678</v>
+      </c>
+      <c r="F84">
+        <v>0.05003763158822375</v>
+      </c>
+      <c r="G84">
+        <v>0.06212722609313374</v>
+      </c>
+      <c r="H84">
+        <v>-0.02104980346043991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1201050279483274</v>
+        <v>-0.1205266124626455</v>
       </c>
       <c r="C85">
-        <v>-0.0639802475387217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03274728658808819</v>
+      </c>
+      <c r="D85">
+        <v>0.0304381386730063</v>
+      </c>
+      <c r="E85">
+        <v>0.01251520782705463</v>
+      </c>
+      <c r="F85">
+        <v>-0.04715768922641431</v>
+      </c>
+      <c r="G85">
+        <v>0.0002257720174860058</v>
+      </c>
+      <c r="H85">
+        <v>-0.1526584928718897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05003811866185683</v>
+        <v>-0.05585631809010679</v>
       </c>
       <c r="C86">
-        <v>-0.02974358522369305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01791048221880308</v>
+      </c>
+      <c r="D86">
+        <v>0.02565378684934285</v>
+      </c>
+      <c r="E86">
+        <v>0.04797353569647566</v>
+      </c>
+      <c r="F86">
+        <v>-0.02559004489612498</v>
+      </c>
+      <c r="G86">
+        <v>0.004218772533693198</v>
+      </c>
+      <c r="H86">
+        <v>-0.01497755357263054</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1201457532381811</v>
+        <v>-0.1196249957399555</v>
       </c>
       <c r="C87">
-        <v>-0.07239261096847072</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03612572397592356</v>
+      </c>
+      <c r="D87">
+        <v>0.0731875519231111</v>
+      </c>
+      <c r="E87">
+        <v>0.01585799343430895</v>
+      </c>
+      <c r="F87">
+        <v>-0.002932524168301657</v>
+      </c>
+      <c r="G87">
+        <v>-0.10906343006348</v>
+      </c>
+      <c r="H87">
+        <v>0.01385573268810269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05382025347990216</v>
+        <v>-0.05938852548653479</v>
       </c>
       <c r="C88">
-        <v>-0.0318927450453524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.0203603740361593</v>
+      </c>
+      <c r="D88">
+        <v>0.02646584369778701</v>
+      </c>
+      <c r="E88">
+        <v>0.01581013065127942</v>
+      </c>
+      <c r="F88">
+        <v>-0.005376005374438593</v>
+      </c>
+      <c r="G88">
+        <v>-0.01625069304475163</v>
+      </c>
+      <c r="H88">
+        <v>-0.05456238880406601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08488852719064564</v>
+        <v>-0.1018996961665317</v>
       </c>
       <c r="C89">
-        <v>-0.06488783679094737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07826983063553723</v>
+      </c>
+      <c r="D89">
+        <v>-0.329127119558568</v>
+      </c>
+      <c r="E89">
+        <v>0.0847346509291468</v>
+      </c>
+      <c r="F89">
+        <v>-0.07602343733218986</v>
+      </c>
+      <c r="G89">
+        <v>0.02099463289186459</v>
+      </c>
+      <c r="H89">
+        <v>-0.00462015128345944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07308759359662867</v>
+        <v>-0.08385556220339559</v>
       </c>
       <c r="C90">
-        <v>-0.05721732479153636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06709582872407992</v>
+      </c>
+      <c r="D90">
+        <v>-0.3035592545023158</v>
+      </c>
+      <c r="E90">
+        <v>0.06570229621936252</v>
+      </c>
+      <c r="F90">
+        <v>-0.005471776238947203</v>
+      </c>
+      <c r="G90">
+        <v>0.004294702751387697</v>
+      </c>
+      <c r="H90">
+        <v>-0.01409590228424248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08438770128389354</v>
+        <v>-0.08857414255334324</v>
       </c>
       <c r="C91">
-        <v>-0.05515724763291324</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03303678087940175</v>
+      </c>
+      <c r="D91">
+        <v>0.03320254027329906</v>
+      </c>
+      <c r="E91">
+        <v>0.01451578059272458</v>
+      </c>
+      <c r="F91">
+        <v>-0.006417881771631263</v>
+      </c>
+      <c r="G91">
+        <v>0.04393359793881742</v>
+      </c>
+      <c r="H91">
+        <v>-0.07572420230327344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07988784548943788</v>
+        <v>-0.09187178999466344</v>
       </c>
       <c r="C92">
-        <v>-0.07588339561154184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08614051861373025</v>
+      </c>
+      <c r="D92">
+        <v>-0.3383413258608478</v>
+      </c>
+      <c r="E92">
+        <v>0.05906526679319777</v>
+      </c>
+      <c r="F92">
+        <v>-0.0338568316991326</v>
+      </c>
+      <c r="G92">
+        <v>-0.005497147145231298</v>
+      </c>
+      <c r="H92">
+        <v>-0.01414113548575032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06650743169094005</v>
+        <v>-0.08333487703230542</v>
       </c>
       <c r="C93">
-        <v>-0.06274062878193318</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07711694821146327</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019888601147979</v>
+      </c>
+      <c r="E93">
+        <v>0.0424065499914609</v>
+      </c>
+      <c r="F93">
+        <v>-0.04582120327444988</v>
+      </c>
+      <c r="G93">
+        <v>-0.006316065388571992</v>
+      </c>
+      <c r="H93">
+        <v>0.003525526101819684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1328282302692673</v>
+        <v>-0.1271496776522258</v>
       </c>
       <c r="C94">
-        <v>-0.05873313886001204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02060194221197245</v>
+      </c>
+      <c r="D94">
+        <v>0.04751379163958552</v>
+      </c>
+      <c r="E94">
+        <v>-0.01722331895200114</v>
+      </c>
+      <c r="F94">
+        <v>-0.02334217831378679</v>
+      </c>
+      <c r="G94">
+        <v>0.03262374923373557</v>
+      </c>
+      <c r="H94">
+        <v>-0.1110660593786544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1183478639063163</v>
+        <v>-0.126532536312151</v>
       </c>
       <c r="C95">
-        <v>-0.03867471067015754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.00939311764903809</v>
+      </c>
+      <c r="D95">
+        <v>0.057640474294979</v>
+      </c>
+      <c r="E95">
+        <v>-0.0006018937742406325</v>
+      </c>
+      <c r="F95">
+        <v>-0.03993224917756105</v>
+      </c>
+      <c r="G95">
+        <v>0.01304070437348102</v>
+      </c>
+      <c r="H95">
+        <v>0.02584990359569249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2049205050437673</v>
+        <v>-0.215750783959097</v>
       </c>
       <c r="C97">
-        <v>-0.04687538638651905</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01028552121693212</v>
+      </c>
+      <c r="D97">
+        <v>-0.07649941210940729</v>
+      </c>
+      <c r="E97">
+        <v>-0.2404677395111634</v>
+      </c>
+      <c r="F97">
+        <v>0.8858161678297236</v>
+      </c>
+      <c r="G97">
+        <v>-0.1156280939657282</v>
+      </c>
+      <c r="H97">
+        <v>0.02850723222578031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.246827952725257</v>
+        <v>-0.2742414351911932</v>
       </c>
       <c r="C98">
-        <v>-0.08561498706266295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03951880232246349</v>
+      </c>
+      <c r="D98">
+        <v>0.06109274865794827</v>
+      </c>
+      <c r="E98">
+        <v>-0.1409040469121865</v>
+      </c>
+      <c r="F98">
+        <v>-0.07107179410719797</v>
+      </c>
+      <c r="G98">
+        <v>0.2828442401354672</v>
+      </c>
+      <c r="H98">
+        <v>0.2294490286673421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4611475137224902</v>
+        <v>-0.2867915833481218</v>
       </c>
       <c r="C99">
-        <v>0.8728751786193066</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9366740416532888</v>
+      </c>
+      <c r="D99">
+        <v>-0.1255029065810512</v>
+      </c>
+      <c r="E99">
+        <v>0.05467146884090642</v>
+      </c>
+      <c r="F99">
+        <v>-0.04304134226607415</v>
+      </c>
+      <c r="G99">
+        <v>0.01330809211073577</v>
+      </c>
+      <c r="H99">
+        <v>-0.06249468232020711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04096247579962541</v>
+        <v>-0.04695706385739335</v>
       </c>
       <c r="C101">
-        <v>-0.03025596507226869</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02367603586244397</v>
+      </c>
+      <c r="D101">
+        <v>0.007010463231318011</v>
+      </c>
+      <c r="E101">
+        <v>0.04705955127269346</v>
+      </c>
+      <c r="F101">
+        <v>-0.001516775678635666</v>
+      </c>
+      <c r="G101">
+        <v>-0.003337031412352737</v>
+      </c>
+      <c r="H101">
+        <v>-0.08606368035822393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
